--- a/Python/scikit_learn/hw1.xlsx
+++ b/Python/scikit_learn/hw1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2\인공지능\project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Assignment\Python\scikit_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E8AAEF7-7775-4E3D-B563-FF3C12B7C70E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41976CD-E6C7-49ED-B456-849E4C61728E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" xr2:uid="{4DD6681B-6C09-48D8-886B-019D02AB366B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7313" xr2:uid="{4DD6681B-6C09-48D8-886B-019D02AB366B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Iris</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGBRegressor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,37 +495,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0280D5EF-BE46-4C1C-A652-092BF60253A5}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.0625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="1">
         <v>43427</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -541,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -561,7 +565,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -581,7 +585,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -601,7 +605,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -621,7 +625,7 @@
         <v>0.76200000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -641,7 +645,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -661,7 +665,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -681,7 +685,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -701,7 +705,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -721,7 +725,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -735,46 +739,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>51503.95</v>
+        <v>34793.410000000003</v>
       </c>
       <c r="C15">
-        <v>0.56000000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="D15">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16">
-        <v>51469.3</v>
+        <v>34788.43</v>
       </c>
       <c r="C16">
-        <v>0.56000000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="D16">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17">
-        <v>44560.58</v>
+        <v>34779.07</v>
       </c>
       <c r="C17">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="D17">
-        <v>0.67</v>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>31556.11</v>
+      </c>
+      <c r="C18">
+        <v>0.84</v>
+      </c>
+      <c r="D18">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
